--- a/project_1/part_1/Test_cases.xlsx
+++ b/project_1/part_1/Test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qa-testing-portfolio\project_1\part_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864E2EF-5488-4CBF-8639-FE632ED0B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE7E482-2E78-465F-A2C0-685731E59D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -63,24 +63,12 @@
     <t>User is on the login page</t>
   </si>
   <si>
-    <t>Enter valid username</t>
-  </si>
-  <si>
-    <t>Enter valid password</t>
-  </si>
-  <si>
-    <t>Click Login</t>
-  </si>
-  <si>
     <t>User should be logged in successfully and redirected to the dashboard</t>
   </si>
   <si>
     <t>User is redirected to dashboard</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>TC-LOGIN-02</t>
   </si>
   <si>
@@ -90,12 +78,6 @@
     <t>verify login with valid username and invalid password</t>
   </si>
   <si>
-    <t>Enter invalid password</t>
-  </si>
-  <si>
-    <t>User stayed in login page with invalid credentials as a message</t>
-  </si>
-  <si>
     <t>TC-LOGIN-03</t>
   </si>
   <si>
@@ -105,9 +87,6 @@
     <t>verify login with invalid username and valid password</t>
   </si>
   <si>
-    <t>Enter invalid username</t>
-  </si>
-  <si>
     <t>TC-LOGIN-04</t>
   </si>
   <si>
@@ -120,9 +99,6 @@
     <t>Validation message should be displayed for mandatory fields</t>
   </si>
   <si>
-    <t>User stayed in login page with required in each fields</t>
-  </si>
-  <si>
     <t>TC-LOGIN-05</t>
   </si>
   <si>
@@ -132,18 +108,9 @@
     <t>verify login with valid username and empty password</t>
   </si>
   <si>
-    <t>Leave username field empty</t>
-  </si>
-  <si>
-    <t>Leave password field empty</t>
-  </si>
-  <si>
     <t>Password required validation message should be displayed</t>
   </si>
   <si>
-    <t>User stayed in login page with required in password field</t>
-  </si>
-  <si>
     <t>TC-LOGIN-06</t>
   </si>
   <si>
@@ -156,9 +123,6 @@
     <t>Username required validation message should be displayed</t>
   </si>
   <si>
-    <t>User stayed in login page with required in username field</t>
-  </si>
-  <si>
     <t>TC-LOGIN-08</t>
   </si>
   <si>
@@ -177,9 +141,6 @@
     <t>verify login with SQL injection attempt in username field</t>
   </si>
   <si>
-    <t>Enter special characters in username</t>
-  </si>
-  <si>
     <t>Login should fail and an error message should be displayed</t>
   </si>
   <si>
@@ -189,20 +150,219 @@
     <t>Login should be blocked and handled securely</t>
   </si>
   <si>
-    <t>Enter SQL injection string ' OR '1'='1 in username field</t>
-  </si>
-  <si>
-    <t>Enter any random  password</t>
+    <t>1. Enter valid username 
+2. Enter valid password 
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter valid username 
+2. Enter invalid password 
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username 
+2. Enter valid password 
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Leave username field empty
+2. Leave password field empty
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter valid username 
+2. Leave password field empty
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Leave username field empty
+2. Enter valid password
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter special characters in username
+2. Enter valid password
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter SQL injection string ' OR '1'='1 in username field
+2. Enter any random  password
+3. Click login</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-09</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-10</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-11</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-12</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-13</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-14</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-15</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-16</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-17</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-02</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-05</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-09</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-10</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-11</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-13</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-15</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-16</t>
+  </si>
+  <si>
+    <t>TS-LOGIN-17</t>
+  </si>
+  <si>
+    <t>verify successful redirection to dashboard after login</t>
+  </si>
+  <si>
+    <t>1. Enter valid username
+2. Enter valid password
+3. Click login</t>
+  </si>
+  <si>
+    <t>verify login with invalid username and invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username 
+2. Enter invalid password 
+3. Click Login</t>
+  </si>
+  <si>
+    <t>verify login with empty username invalid password</t>
+  </si>
+  <si>
+    <t>verify login with invalid username empty password</t>
+  </si>
+  <si>
+    <t>verify error message for invalid login attempt</t>
+  </si>
+  <si>
+    <t>verify login with special character in password</t>
+  </si>
+  <si>
+    <t>verify login with SQL injection attempt in password field</t>
+  </si>
+  <si>
+    <t>verify session creation after successful login</t>
+  </si>
+  <si>
+    <t>verify user cannot access dashboard without login</t>
+  </si>
+  <si>
+    <t>1. Leave username field empty
+2. Enter invalid password 
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username 
+2. Leave password field empty
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter valid username 
+2. Enter special characters in password 
+3. Click Login</t>
+  </si>
+  <si>
+    <t>1. Enter valid username 
+2. Enter SQL injection string ' OR '1'='1 in password 
+3. Click Login</t>
+  </si>
+  <si>
+    <t>Login should fail and an error messages should be displayed</t>
+  </si>
+  <si>
+    <t>Appropriate error message should be displayed for invalid login</t>
+  </si>
+  <si>
+    <t>User session should be created and user should access dashboard</t>
+  </si>
+  <si>
+    <t>1. Open dashboard URL directly without logging in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be redirect to the login page </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>User session was created and dashboard was accessible</t>
+  </si>
+  <si>
+    <t>User redirected to login page.</t>
+  </si>
+  <si>
+    <t>Login failed with generic “Invalid credentials” message; no specific input validation or security warning displayed</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>User remained on the login page and “Invalid credentials” error message was displayed</t>
+  </si>
+  <si>
+    <t>User stayed in login page with "required" error message in each fields</t>
+  </si>
+  <si>
+    <t>User stayed in login page with "required" error message in  password field</t>
+  </si>
+  <si>
+    <t>User stayed in login page with "required" error message in username field</t>
+  </si>
+  <si>
+    <t>Successfully redirected to the dashboard after login</t>
+  </si>
+  <si>
+    <t>User stayed in login page with "required" error message in password field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,10 +388,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,11 +689,11 @@
     <col min="3" max="3" width="43.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -570,393 +733,517 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>87</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -966,167 +1253,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>